--- a/sql-query-ipo.xlsx
+++ b/sql-query-ipo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>I</t>
   </si>
@@ -41,12 +41,6 @@
     <t>CustomerName</t>
   </si>
   <si>
-    <t>CustomerAddress</t>
-  </si>
-  <si>
-    <t>CreditLimit &gt; 150</t>
-  </si>
-  <si>
     <t>CustomerTBL</t>
   </si>
   <si>
@@ -57,13 +51,46 @@
   </si>
   <si>
     <t>SELECT</t>
+  </si>
+  <si>
+    <t>SalesOrderDate</t>
+  </si>
+  <si>
+    <t>OrderTBL</t>
+  </si>
+  <si>
+    <t>Two tables --&gt; join --&gt; matching join (inner)</t>
+  </si>
+  <si>
+    <t>Two tables --&gt; join --&gt; non matching join (outer, left or right)</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>ProductTBL</t>
+  </si>
+  <si>
+    <t>OrderDetailTBL</t>
+  </si>
+  <si>
+    <t>Count(OrderDetailTbl.ProductID)</t>
+  </si>
+  <si>
+    <t>Two Tables --&gt; join --&gt; non matching join</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +115,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +142,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -217,10 +264,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,8 +318,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -285,6 +352,484 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="942974"/>
+          <a:ext cx="4848225" cy="2272903"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2257425"/>
+            <a:gd name="connsiteX1" fmla="*/ 990600 w 5943600"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2257425"/>
+            <a:gd name="connsiteX2" fmla="*/ 990600 w 5943600"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2257425"/>
+            <a:gd name="connsiteX3" fmla="*/ 2476500 w 5943600"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2257425"/>
+            <a:gd name="connsiteX4" fmla="*/ 5943600 w 5943600"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2257425"/>
+            <a:gd name="connsiteX5" fmla="*/ 5943600 w 5943600"/>
+            <a:gd name="connsiteY5" fmla="*/ 1316831 h 2257425"/>
+            <a:gd name="connsiteX6" fmla="*/ 5943600 w 5943600"/>
+            <a:gd name="connsiteY6" fmla="*/ 1316831 h 2257425"/>
+            <a:gd name="connsiteX7" fmla="*/ 5943600 w 5943600"/>
+            <a:gd name="connsiteY7" fmla="*/ 1881188 h 2257425"/>
+            <a:gd name="connsiteX8" fmla="*/ 5943600 w 5943600"/>
+            <a:gd name="connsiteY8" fmla="*/ 2257425 h 2257425"/>
+            <a:gd name="connsiteX9" fmla="*/ 2476500 w 5943600"/>
+            <a:gd name="connsiteY9" fmla="*/ 2257425 h 2257425"/>
+            <a:gd name="connsiteX10" fmla="*/ 1733570 w 5943600"/>
+            <a:gd name="connsiteY10" fmla="*/ 2539603 h 2257425"/>
+            <a:gd name="connsiteX11" fmla="*/ 990600 w 5943600"/>
+            <a:gd name="connsiteY11" fmla="*/ 2257425 h 2257425"/>
+            <a:gd name="connsiteX12" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY12" fmla="*/ 2257425 h 2257425"/>
+            <a:gd name="connsiteX13" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY13" fmla="*/ 1881188 h 2257425"/>
+            <a:gd name="connsiteX14" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY14" fmla="*/ 1316831 h 2257425"/>
+            <a:gd name="connsiteX15" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY15" fmla="*/ 1316831 h 2257425"/>
+            <a:gd name="connsiteX16" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY16" fmla="*/ 0 h 2257425"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2272903"/>
+            <a:gd name="connsiteX1" fmla="*/ 990600 w 5943600"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2272903"/>
+            <a:gd name="connsiteX2" fmla="*/ 990600 w 5943600"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2272903"/>
+            <a:gd name="connsiteX3" fmla="*/ 2476500 w 5943600"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2272903"/>
+            <a:gd name="connsiteX4" fmla="*/ 5943600 w 5943600"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2272903"/>
+            <a:gd name="connsiteX5" fmla="*/ 5943600 w 5943600"/>
+            <a:gd name="connsiteY5" fmla="*/ 1316831 h 2272903"/>
+            <a:gd name="connsiteX6" fmla="*/ 5943600 w 5943600"/>
+            <a:gd name="connsiteY6" fmla="*/ 1316831 h 2272903"/>
+            <a:gd name="connsiteX7" fmla="*/ 5943600 w 5943600"/>
+            <a:gd name="connsiteY7" fmla="*/ 1881188 h 2272903"/>
+            <a:gd name="connsiteX8" fmla="*/ 5943600 w 5943600"/>
+            <a:gd name="connsiteY8" fmla="*/ 2257425 h 2272903"/>
+            <a:gd name="connsiteX9" fmla="*/ 2476500 w 5943600"/>
+            <a:gd name="connsiteY9" fmla="*/ 2257425 h 2272903"/>
+            <a:gd name="connsiteX10" fmla="*/ 1724045 w 5943600"/>
+            <a:gd name="connsiteY10" fmla="*/ 2272903 h 2272903"/>
+            <a:gd name="connsiteX11" fmla="*/ 990600 w 5943600"/>
+            <a:gd name="connsiteY11" fmla="*/ 2257425 h 2272903"/>
+            <a:gd name="connsiteX12" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY12" fmla="*/ 2257425 h 2272903"/>
+            <a:gd name="connsiteX13" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY13" fmla="*/ 1881188 h 2272903"/>
+            <a:gd name="connsiteX14" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY14" fmla="*/ 1316831 h 2272903"/>
+            <a:gd name="connsiteX15" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY15" fmla="*/ 1316831 h 2272903"/>
+            <a:gd name="connsiteX16" fmla="*/ 0 w 5943600"/>
+            <a:gd name="connsiteY16" fmla="*/ 0 h 2272903"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5943600" h="2272903">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="990600" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="990600" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2476500" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5943600" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5943600" y="1316831"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5943600" y="1316831"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5943600" y="1881188"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5943600" y="2257425"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2476500" y="2257425"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1724045" y="2272903"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="990600" y="2257425"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="2257425"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="1881188"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="1316831"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="1316831"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Practice these two SQL questions for the next lab</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Create a stored procedure (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>call it sample41</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) which will output the CustomerID, </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CustomerName and the SalesOrderDate of all customers </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>who have placed an order.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Create a stored procedure (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>call it sample42</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) which will output the CustomerID, </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CustomerName and the SalesOrderDate of all customers </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>who have never placed an order.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NB make sure to do an IPO before you create the cproc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,28 +1095,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D18"/>
+  <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="4" width="47.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -597,28 +1147,32 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
+      <c r="B7" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -627,34 +1181,52 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
+      <c r="B9" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
+      <c r="B10" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="18" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
@@ -662,22 +1234,76 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
+      <c r="B16" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
+      <c r="B17" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="5"/>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>